--- a/medicine/Médecine vétérinaire/Cœur_du_cheval/Cœur_du_cheval.xlsx
+++ b/medicine/Médecine vétérinaire/Cœur_du_cheval/Cœur_du_cheval.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C5%93ur_du_cheval</t>
+          <t>Cœur_du_cheval</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cœur du cheval est un organe de l'anatomie du cheval.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C5%93ur_du_cheval</t>
+          <t>Cœur_du_cheval</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des chevaux de course comme Secretariat, Eclipse et Phar Lap sont cités pour avoir eu un coeur particulièrement gros[1].
-Un cas d'hypertrophie cardiaque est étudié en 1863, aboutissant à une détermination du poids de l'organe de 5,2 kg[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des chevaux de course comme Secretariat, Eclipse et Phar Lap sont cités pour avoir eu un coeur particulièrement gros.
+Un cas d'hypertrophie cardiaque est étudié en 1863, aboutissant à une détermination du poids de l'organe de 5,2 kg.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C5%93ur_du_cheval</t>
+          <t>Cœur_du_cheval</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cheval domestique peut souffrir d'endocardite[3].
-Les arythmies cardiaques affectent le plus souvent le bloc auriculo-ventriculaire du deuxième degré, d'après l'étude de 159 sujets belges[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cheval domestique peut souffrir d'endocardite.
+Les arythmies cardiaques affectent le plus souvent le bloc auriculo-ventriculaire du deuxième degré, d'après l'étude de 159 sujets belges.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C5%93ur_du_cheval</t>
+          <t>Cœur_du_cheval</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Art vétérinaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier électrocardiogramme du cheval est enregistré en 1913 par Nörr, à l'aide d'un appareil fourni par l'entreprise Siemens[5]. Les premiers essais fructueux de phonocardiographie du cheval sont réalisés dans les années 1930, ce qui permet de repérer d'éventuels troubles du rythme tels que la tachycardie[6]. Le cathétérisme cardiaque du cheval est possible depuis les années 2000[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier électrocardiogramme du cheval est enregistré en 1913 par Nörr, à l'aide d'un appareil fourni par l'entreprise Siemens. Les premiers essais fructueux de phonocardiographie du cheval sont réalisés dans les années 1930, ce qui permet de repérer d'éventuels troubles du rythme tels que la tachycardie. Le cathétérisme cardiaque du cheval est possible depuis les années 2000.
 </t>
         </is>
       </c>
